--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABADB932-B32E-D843-9C52-D6BDFBAABF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D538B20-E543-BE4E-A68B-676CA884F9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Markerlist</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Conventional empty bar</t>
+  </si>
+  <si>
+    <t>not needed</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -454,6 +457,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -469,19 +487,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +828,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -840,17 +846,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -911,27 +917,29 @@
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -944,7 +952,9 @@
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -957,7 +967,9 @@
       <c r="A7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -970,7 +982,9 @@
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -983,7 +997,9 @@
       <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -996,7 +1012,9 @@
       <c r="A10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1009,7 +1027,9 @@
       <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1073,14 +1093,14 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1097,22 +1117,22 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1130,18 +1150,18 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1156,18 +1176,18 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D538B20-E543-BE4E-A68B-676CA884F9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B793314C-6DC1-9D46-AADB-8CACF7BEB292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -828,7 +828,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>

--- a/doc/Planning.xlsx
+++ b/doc/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B793314C-6DC1-9D46-AADB-8CACF7BEB292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12511E-E677-5B46-8CD9-8EC84232E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>Markerlist</t>
   </si>
@@ -249,9 +249,6 @@
     <t>1. Data collection</t>
   </si>
   <si>
-    <t>2. Scaling</t>
-  </si>
-  <si>
     <t>3. Inverse kinematics</t>
   </si>
   <si>
@@ -270,15 +267,6 @@
     <t>5. Inverse dynamics</t>
   </si>
   <si>
-    <t>6. Check moments</t>
-  </si>
-  <si>
-    <t>7. Check actuators</t>
-  </si>
-  <si>
-    <t>8. Static Optimizastion</t>
-  </si>
-  <si>
     <t>9. Reduction Residuals</t>
   </si>
   <si>
@@ -288,9 +276,6 @@
     <t>Sumo 1</t>
   </si>
   <si>
-    <t>Trails</t>
-  </si>
-  <si>
     <t>Conventional 1</t>
   </si>
   <si>
@@ -306,16 +291,79 @@
     <t>Conventional 3</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Sumo empty bar</t>
-  </si>
-  <si>
-    <t>Conventional empty bar</t>
-  </si>
-  <si>
     <t>not needed</t>
+  </si>
+  <si>
+    <t>8. Static Optimization</t>
+  </si>
+  <si>
+    <t>Check marker errors</t>
+  </si>
+  <si>
+    <t>Sumo empty bar 1</t>
+  </si>
+  <si>
+    <t>Sumo empty bar 0</t>
+  </si>
+  <si>
+    <t>Sumo empty bar 2</t>
+  </si>
+  <si>
+    <t>Sumo empty bar 3</t>
+  </si>
+  <si>
+    <t>Sumo 0</t>
+  </si>
+  <si>
+    <t>Check moments</t>
+  </si>
+  <si>
+    <t>Check actuators</t>
+  </si>
+  <si>
+    <t>10. Muscle Analysis</t>
+  </si>
+  <si>
+    <t>Conv empty bar 0</t>
+  </si>
+  <si>
+    <t>Conv empty bar 1</t>
+  </si>
+  <si>
+    <t>Conv empty bar 2</t>
+  </si>
+  <si>
+    <t>Conv empty bar 3</t>
+  </si>
+  <si>
+    <t>SUMO</t>
+  </si>
+  <si>
+    <t>CONV</t>
+  </si>
+  <si>
+    <t>Conventional 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scaling</t>
+  </si>
+  <si>
+    <t>2. Inverse kinematics</t>
+  </si>
+  <si>
+    <t>3. Check kinematics</t>
+  </si>
+  <si>
+    <t>4. Inverse dynamics</t>
+  </si>
+  <si>
+    <t>5. Static Optimization</t>
+  </si>
+  <si>
+    <t>6. Reduction Residuals</t>
+  </si>
+  <si>
+    <t>7. Muscle Analysis</t>
   </si>
 </sst>
 </file>
@@ -388,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,12 +467,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -439,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -466,7 +508,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -490,6 +532,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,135 +869,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BC5316-D5E8-584C-B1B8-90306BBB571C}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="5" width="25.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -962,14 +1012,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -977,13 +1029,17 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -992,13 +1048,17 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1007,41 +1067,278 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B4:I4"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1053,7 +1350,7 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,10 +1421,10 @@
       <c r="G3" s="14"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
